--- a/Income/HON_inc.xlsx
+++ b/Income/HON_inc.xlsx
@@ -1981,16 +1981,16 @@
         <v>0.3298</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.3315</v>
+        <v>0.3299</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.335</v>
+        <v>0.3334</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.34</v>
+        <v>0.3385</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.3385</v>
+        <v>0.337</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.3315</v>
@@ -2114,7 +2114,7 @@
         <v>0.1783</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.1902</v>
+        <v>0.1901</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>0.1866</v>
@@ -2238,7 +2238,7 @@
         <v>0.1826</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>0.1996</v>
+        <v>0.1995</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>0.2109</v>
@@ -2495,7 +2495,7 @@
         <v>0.1637</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>0.163</v>
+        <v>0.1629</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>0.1662</v>
@@ -4110,16 +4110,16 @@
         <v>0.2218</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>0.2227</v>
+        <v>0.216</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>0.2234</v>
+        <v>0.2169</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>0.2266</v>
+        <v>0.2205</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>0.2223</v>
+        <v>0.2163</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>0.2098</v>
